--- a/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (002).xlsx
+++ b/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (002).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Workspaces/Book/net.jgp.books.spark.ch16/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDC5878-6BB6-ED40-A1B6-A4B47B80EA24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14301551-5C06-F749-ACF4-2F2F7B18304E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11140" yWindow="460" windowWidth="38580" windowHeight="42240" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
   </bookViews>
@@ -409,7 +409,7 @@
                   <c:v>19.888916666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.564857142857143</c:v>
+                  <c:v>16.013500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16.4575</c:v>
@@ -544,7 +544,7 @@
                   <c:v>12.700916666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.194714285714285</c:v>
+                  <c:v>10.587428571428573</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10.617949999999999</c:v>
@@ -679,7 +679,7 @@
                   <c:v>9.0338333333333338</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6379999999999999</c:v>
+                  <c:v>7.5805000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.8594500000000007</c:v>
@@ -814,7 +814,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.5055714285714279</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.1957000000000004</c:v>
@@ -1198,7 +1198,7 @@
                   <c:v>119333.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108954</c:v>
+                  <c:v>112094.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>164575</c:v>
@@ -1347,7 +1347,7 @@
                   <c:v>76205.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71363</c:v>
+                  <c:v>74112</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>106179.5</c:v>
@@ -1496,7 +1496,7 @@
                   <c:v>54203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53466</c:v>
+                  <c:v>53063.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>78594.5</c:v>
@@ -1585,7 +1585,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>52539</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>71957</c:v>
@@ -3285,7 +3285,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -4435,7 +4435,9 @@
         <v>82448</v>
       </c>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="P28" s="6">
+        <v>115235</v>
+      </c>
       <c r="Q28" s="6">
         <v>155563</v>
       </c>
@@ -4468,7 +4470,9 @@
         <v>52729</v>
       </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="P29" s="6">
+        <v>76861</v>
+      </c>
       <c r="Q29" s="6">
         <v>102054</v>
       </c>
@@ -4501,7 +4505,9 @@
         <v>36718</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="6">
+        <v>52661</v>
+      </c>
       <c r="Q30" s="6">
         <v>74008</v>
       </c>
@@ -4530,7 +4536,9 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="P31" s="6">
+        <v>52539</v>
+      </c>
       <c r="Q31" s="6">
         <v>71957</v>
       </c>
@@ -4736,7 +4744,7 @@
       </c>
       <c r="P38" s="2">
         <f t="shared" ref="P38" si="7">IF(ISERROR(AVERAGE(P33,P28,P23)),"",AVERAGE(P33,P28,P23))</f>
-        <v>108954</v>
+        <v>112094.5</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="6"/>
@@ -4810,7 +4818,7 @@
       </c>
       <c r="P39" s="2">
         <f t="shared" ref="P39" si="12">IF(ISERROR(AVERAGE(P34,P29,P24)),"",AVERAGE(P34,P29,P24))</f>
-        <v>71363</v>
+        <v>74112</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="11"/>
@@ -4884,7 +4892,7 @@
       </c>
       <c r="P40" s="2">
         <f t="shared" ref="P40:P41" si="17">IF(ISERROR(AVERAGE(P35,P30,P25)),"",AVERAGE(P35,P30,P25))</f>
-        <v>53466</v>
+        <v>53063.5</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="16"/>
@@ -4956,9 +4964,9 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="P41" s="2" t="str">
+      <c r="P41" s="2">
         <f t="shared" si="17"/>
-        <v/>
+        <v>52539</v>
       </c>
       <c r="Q41" s="2">
         <f>IF(ISERROR(AVERAGE(Q36,Q31,Q26)),"",AVERAGE(Q36,Q31,Q26))</f>
@@ -5034,7 +5042,7 @@
       </c>
       <c r="P43" s="2">
         <f t="shared" si="20"/>
-        <v>108954</v>
+        <v>112094.5</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="20"/>
@@ -5108,7 +5116,7 @@
       </c>
       <c r="P44" s="2">
         <f t="shared" si="23"/>
-        <v>71363</v>
+        <v>74112</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="23"/>
@@ -5182,7 +5190,7 @@
       </c>
       <c r="P45" s="2">
         <f t="shared" si="26"/>
-        <v>53466</v>
+        <v>53063.5</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="26"/>
@@ -5254,9 +5262,9 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P46" s="2" t="e">
+      <c r="P46" s="2">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>52539</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="29"/>
@@ -5332,7 +5340,7 @@
       </c>
       <c r="P48" s="12">
         <f t="shared" si="30"/>
-        <v>15.564857142857143</v>
+        <v>16.013500000000001</v>
       </c>
       <c r="Q48" s="12">
         <f t="shared" si="30"/>
@@ -5406,7 +5414,7 @@
       </c>
       <c r="P49" s="12">
         <f t="shared" si="32"/>
-        <v>10.194714285714285</v>
+        <v>10.587428571428573</v>
       </c>
       <c r="Q49" s="12">
         <f t="shared" si="32"/>
@@ -5480,7 +5488,7 @@
       </c>
       <c r="P50" s="12">
         <f t="shared" si="32"/>
-        <v>7.6379999999999999</v>
+        <v>7.5805000000000007</v>
       </c>
       <c r="Q50" s="12">
         <f t="shared" si="32"/>
@@ -5552,9 +5560,9 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P51" s="12" t="e">
+      <c r="P51" s="12">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>7.5055714285714279</v>
       </c>
       <c r="Q51" s="12">
         <f t="shared" si="32"/>

--- a/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (002).xlsx
+++ b/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (002).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Workspaces/Book/net.jgp.books.spark.ch16/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14301551-5C06-F749-ACF4-2F2F7B18304E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECEC037-F40D-FD4F-A11A-6D4BA8395742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11140" yWindow="460" windowWidth="38580" windowHeight="42240" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapter 16 - Lab 100 Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -300,7 +300,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$48</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +335,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -380,7 +380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$48:$S$48</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$48:$S$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -403,10 +403,10 @@
                   <c:v>18.581125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.725200000000001</c:v>
+                  <c:v>19.744583333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.888916666666667</c:v>
+                  <c:v>19.459208333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16.013500000000001</c:v>
@@ -435,7 +435,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$49</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -470,7 +470,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -515,7 +515,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$49:$S$49</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$49:$S$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -538,10 +538,10 @@
                   <c:v>12.238958333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.43455</c:v>
+                  <c:v>12.866766666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.700916666666666</c:v>
+                  <c:v>12.543208333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10.587428571428573</c:v>
@@ -570,7 +570,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$50</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -605,7 +605,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -650,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$50:$S$50</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$50:$S$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -673,10 +673,10 @@
                   <c:v>10.124916666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8902999999999999</c:v>
+                  <c:v>8.8194166666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0338333333333338</c:v>
+                  <c:v>9.0915416666666662</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.5805000000000007</c:v>
@@ -705,7 +705,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -740,7 +740,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -785,7 +785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$51:$S$51</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$51:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -808,10 +808,10 @@
                   <c:v>10.068499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.0960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.2845000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.5055714285714279</c:v>
@@ -1074,7 +1074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$43</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1094,7 +1094,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1154,7 +1154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$43:$S$43</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$43:$S$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1192,10 +1192,10 @@
                   <c:v>74324.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103626</c:v>
+                  <c:v>98722.916666666657</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119333.5</c:v>
+                  <c:v>116755.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>112094.5</c:v>
@@ -1223,7 +1223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$44</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,7 +1243,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1303,7 +1303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$44:$S$44</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$44:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1341,10 +1341,10 @@
                   <c:v>48955.833333333328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67172.75</c:v>
+                  <c:v>64333.833333333328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76205.5</c:v>
+                  <c:v>75259.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>74112</c:v>
@@ -1372,7 +1372,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$45</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1392,7 +1392,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1452,7 +1452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$45:$S$45</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$45:$S$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1490,10 +1490,10 @@
                   <c:v>40499.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44451.5</c:v>
+                  <c:v>44097.083333333328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54203</c:v>
+                  <c:v>54549.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>53063.5</c:v>
@@ -1521,7 +1521,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$46</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1541,7 +1541,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$46:$S$46</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$46:$S$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1579,10 +1579,10 @@
                   <c:v>40274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>52539</c:v>
@@ -1732,47 +1732,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.58072375328083992"/>
-          <c:y val="0.66956583552055993"/>
-          <c:w val="0.32760634446556247"/>
-          <c:h val="4.6875328083989511E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3285,7 +3244,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -3586,7 +3545,9 @@
       <c r="M8" s="6">
         <v>84295</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6">
+        <v>102992</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -3633,7 +3594,9 @@
       <c r="M9" s="6">
         <v>57848</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>67581</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -3680,7 +3643,9 @@
       <c r="M10" s="6">
         <v>42495</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6">
+        <v>50049</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -3717,7 +3682,9 @@
         <v>25596</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6">
+        <v>47707</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -3967,7 +3934,7 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>125011</v>
+        <v>114001.5</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
@@ -4038,7 +4005,7 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="1"/>
-        <v>81679</v>
+        <v>74630</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="1"/>
@@ -4109,7 +4076,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="2"/>
-        <v>56736</v>
+        <v>53392.5</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="2"/>
@@ -4178,9 +4145,9 @@
         <f t="shared" si="3"/>
         <v>40274</v>
       </c>
-      <c r="N21" s="2" t="str">
+      <c r="N21" s="2">
         <f t="shared" si="3"/>
-        <v/>
+        <v>47707</v>
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4434,7 +4401,9 @@
       <c r="N28" s="6">
         <v>82448</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>88944</v>
+      </c>
       <c r="P28" s="6">
         <v>115235</v>
       </c>
@@ -4469,7 +4438,9 @@
       <c r="N29" s="6">
         <v>52729</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>61033</v>
+      </c>
       <c r="P29" s="6">
         <v>76861</v>
       </c>
@@ -4504,7 +4475,9 @@
       <c r="N30" s="6">
         <v>36718</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6">
+        <v>45547</v>
+      </c>
       <c r="P30" s="6">
         <v>52661</v>
       </c>
@@ -4535,7 +4508,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>43707</v>
+      </c>
       <c r="P31" s="6">
         <v>52539</v>
       </c>
@@ -4586,7 +4561,9 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="N33" s="6">
+        <v>85851</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -4609,7 +4586,9 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="N34" s="6">
+        <v>56780</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -4632,7 +4611,9 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="N35" s="6">
+        <v>40071</v>
+      </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -4655,7 +4636,9 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="6">
+        <v>33253</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -4736,11 +4719,11 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="6"/>
-        <v>82241</v>
+        <v>83444.333333333328</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="6"/>
-        <v>99257</v>
+        <v>94100.5</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" ref="P38" si="7">IF(ISERROR(AVERAGE(P33,P28,P23)),"",AVERAGE(P33,P28,P23))</f>
@@ -4810,11 +4793,11 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="11"/>
-        <v>52666.5</v>
+        <v>54037.666666666664</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="11"/>
-        <v>64818</v>
+        <v>62925.5</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" ref="P39" si="12">IF(ISERROR(AVERAGE(P34,P29,P24)),"",AVERAGE(P34,P29,P24))</f>
@@ -4884,11 +4867,11 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="16"/>
-        <v>32167</v>
+        <v>34801.666666666664</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="16"/>
-        <v>44162</v>
+        <v>44854.5</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" ref="P40:P41" si="17">IF(ISERROR(AVERAGE(P35,P30,P25)),"",AVERAGE(P35,P30,P25))</f>
@@ -4956,13 +4939,13 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N41" s="2" t="str">
+      <c r="N41" s="2">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O41" s="2" t="str">
+        <v>33253</v>
+      </c>
+      <c r="O41" s="2">
         <f t="shared" si="15"/>
-        <v/>
+        <v>43707</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="17"/>
@@ -5034,11 +5017,11 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="20"/>
-        <v>103626</v>
+        <v>98722.916666666657</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="20"/>
-        <v>119333.5</v>
+        <v>116755.25</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="20"/>
@@ -5108,11 +5091,11 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="23"/>
-        <v>67172.75</v>
+        <v>64333.833333333328</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="23"/>
-        <v>76205.5</v>
+        <v>75259.25</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="23"/>
@@ -5182,11 +5165,11 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="26"/>
-        <v>44451.5</v>
+        <v>44097.083333333328</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="26"/>
-        <v>54203</v>
+        <v>54549.25</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="26"/>
@@ -5254,13 +5237,13 @@
         <f t="shared" si="29"/>
         <v>40274</v>
       </c>
-      <c r="N46" s="2" t="e">
+      <c r="N46" s="2">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O46" s="2" t="e">
+        <v>40480</v>
+      </c>
+      <c r="O46" s="2">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>43707</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="29"/>
@@ -5332,11 +5315,11 @@
       </c>
       <c r="N48" s="12">
         <f t="shared" si="30"/>
-        <v>20.725200000000001</v>
+        <v>19.744583333333331</v>
       </c>
       <c r="O48" s="12">
         <f t="shared" si="30"/>
-        <v>19.888916666666667</v>
+        <v>19.459208333333333</v>
       </c>
       <c r="P48" s="12">
         <f t="shared" si="30"/>
@@ -5406,11 +5389,11 @@
       </c>
       <c r="N49" s="12">
         <f t="shared" si="32"/>
-        <v>13.43455</v>
+        <v>12.866766666666667</v>
       </c>
       <c r="O49" s="12">
         <f t="shared" si="32"/>
-        <v>12.700916666666666</v>
+        <v>12.543208333333332</v>
       </c>
       <c r="P49" s="12">
         <f t="shared" si="32"/>
@@ -5480,11 +5463,11 @@
       </c>
       <c r="N50" s="12">
         <f t="shared" si="32"/>
-        <v>8.8902999999999999</v>
+        <v>8.8194166666666671</v>
       </c>
       <c r="O50" s="12">
         <f t="shared" si="32"/>
-        <v>9.0338333333333338</v>
+        <v>9.0915416666666662</v>
       </c>
       <c r="P50" s="12">
         <f t="shared" si="32"/>
@@ -5552,13 +5535,13 @@
         <f t="shared" si="32"/>
         <v>10.068499999999998</v>
       </c>
-      <c r="N51" s="12" t="e">
+      <c r="N51" s="12">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="12" t="e">
+        <v>8.0960000000000001</v>
+      </c>
+      <c r="O51" s="12">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>7.2845000000000004</v>
       </c>
       <c r="P51" s="12">
         <f t="shared" si="32"/>

--- a/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (002).xlsx
+++ b/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (002).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Workspaces/Book/net.jgp.books.spark.ch16/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECEC037-F40D-FD4F-A11A-6D4BA8395742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B21935E-1F28-A744-9AB0-4C4532A27DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11140" yWindow="460" windowWidth="38580" windowHeight="42240" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>No cache</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>NE Checkpoint</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -300,7 +306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$48</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -380,7 +386,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$48:$S$48</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$50:$S$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -394,13 +400,13 @@
                   <c:v>18.59975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.793875</c:v>
+                  <c:v>18.570083333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.34525</c:v>
+                  <c:v>18.243333333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.581125</c:v>
+                  <c:v>18.432375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.744583333333331</c:v>
@@ -435,7 +441,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$49</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -515,7 +521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$49:$S$49</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$51:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -529,13 +535,13 @@
                   <c:v>12.95125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.000999999999999</c:v>
+                  <c:v>11.890625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.200583333333332</c:v>
+                  <c:v>11.560666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.238958333333333</c:v>
+                  <c:v>11.801583333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12.866766666666667</c:v>
@@ -570,7 +576,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$50</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -650,7 +656,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$50:$S$50</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$52:$S$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -664,13 +670,13 @@
                   <c:v>9.6895000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6618750000000002</c:v>
+                  <c:v>8.6280416666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4334999999999987</c:v>
+                  <c:v>8.9066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.124916666666667</c:v>
+                  <c:v>9.880604166666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.8194166666666671</c:v>
@@ -705,7 +711,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$51</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -785,7 +791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$51:$S$51</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$53:$S$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -799,13 +805,13 @@
                   <c:v>10.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.984</c:v>
+                  <c:v>8.8087499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.532</c:v>
+                  <c:v>8.5313333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.068499999999998</c:v>
+                  <c:v>8.7958750000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.0960000000000001</c:v>
@@ -1183,13 +1189,13 @@
                   <c:v>18599.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37587.75</c:v>
+                  <c:v>37140.166666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55035.75</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74324.5</c:v>
+                  <c:v>73729.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>98722.916666666657</c:v>
@@ -1332,13 +1338,13 @@
                   <c:v>12951.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24002</c:v>
+                  <c:v>23781.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33601.75</c:v>
+                  <c:v>34682</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48955.833333333328</c:v>
+                  <c:v>47206.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>64333.833333333328</c:v>
@@ -1481,13 +1487,13 @@
                   <c:v>9689.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17323.75</c:v>
+                  <c:v>17256.083333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28300.5</c:v>
+                  <c:v>26720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40499.666666666672</c:v>
+                  <c:v>39522.416666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44097.083333333328</c:v>
@@ -1570,13 +1576,13 @@
                   <c:v>10430</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19968</c:v>
+                  <c:v>17617.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25596</c:v>
+                  <c:v>25594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40274</c:v>
+                  <c:v>35183.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>40480</c:v>
@@ -2868,13 +2874,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2904,13 +2910,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3238,13 +3244,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD6FF0-1D1E-9B4C-96FF-E0188D0144AB}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -4396,7 +4402,9 @@
       <c r="K28" s="6">
         <v>31654</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6">
+        <v>51558</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6">
         <v>82448</v>
@@ -4433,7 +4441,9 @@
       <c r="K29" s="6">
         <v>21574</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6">
+        <v>33310</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6">
         <v>52729</v>
@@ -4470,7 +4480,9 @@
       <c r="K30" s="6">
         <v>15377</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6">
+        <v>19011</v>
+      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6">
         <v>36718</v>
@@ -4505,7 +4517,9 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6">
+        <v>25592</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6">
@@ -4558,9 +4572,13 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="K33" s="6">
+        <v>30607</v>
+      </c>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="6">
+        <v>63806</v>
+      </c>
       <c r="N33" s="6">
         <v>85851</v>
       </c>
@@ -4583,9 +4601,13 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="6">
+        <v>21213</v>
+      </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="M34" s="6">
+        <v>35557</v>
+      </c>
       <c r="N34" s="6">
         <v>56780</v>
       </c>
@@ -4608,9 +4630,13 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="6">
+        <v>15821</v>
+      </c>
       <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="M35" s="6">
+        <v>29363</v>
+      </c>
       <c r="N35" s="6">
         <v>40071</v>
       </c>
@@ -4633,9 +4659,13 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="6">
+        <v>15267</v>
+      </c>
       <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="M36" s="6">
+        <v>30093</v>
+      </c>
       <c r="N36" s="6">
         <v>33253</v>
       </c>
@@ -4707,15 +4737,15 @@
       </c>
       <c r="K38" s="2">
         <f t="shared" ref="K38:Q38" si="6">IF(ISERROR(AVERAGE(K33,K28,K23)),"",AVERAGE(K33,K28,K23))</f>
-        <v>33292.5</v>
+        <v>32397.333333333332</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="6"/>
-        <v>52781</v>
+        <v>52169.5</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="6"/>
-        <v>66186</v>
+        <v>64996</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="6"/>
@@ -4781,15 +4811,15 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" ref="K39:Q39" si="11">IF(ISERROR(AVERAGE(K34,K29,K24)),"",AVERAGE(K34,K29,K24))</f>
-        <v>22537.5</v>
+        <v>22096</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="11"/>
-        <v>28989</v>
+        <v>31149.5</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="11"/>
-        <v>42555</v>
+        <v>39056</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="11"/>
@@ -4855,15 +4885,15 @@
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40:Q40" si="16">IF(ISERROR(AVERAGE(K35,K30,K25)),"",AVERAGE(K35,K30,K25))</f>
-        <v>16227</v>
+        <v>16091.666666666666</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="16"/>
-        <v>25333</v>
+        <v>22172</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="16"/>
-        <v>33272</v>
+        <v>31317.5</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="16"/>
@@ -4927,17 +4957,17 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="K41" s="2">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L41" s="2" t="str">
+        <v>15267</v>
+      </c>
+      <c r="L41" s="2">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M41" s="2" t="str">
+        <v>25592</v>
+      </c>
+      <c r="M41" s="2">
         <f t="shared" si="15"/>
-        <v/>
+        <v>30093</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="15"/>
@@ -5005,15 +5035,15 @@
       </c>
       <c r="K43" s="2">
         <f t="shared" si="20"/>
-        <v>37587.75</v>
+        <v>37140.166666666664</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="20"/>
-        <v>55035.75</v>
+        <v>54730</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="20"/>
-        <v>74324.5</v>
+        <v>73729.5</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="20"/>
@@ -5079,15 +5109,15 @@
       </c>
       <c r="K44" s="2">
         <f t="shared" si="23"/>
-        <v>24002</v>
+        <v>23781.25</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="23"/>
-        <v>33601.75</v>
+        <v>34682</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="23"/>
-        <v>48955.833333333328</v>
+        <v>47206.333333333328</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="23"/>
@@ -5153,15 +5183,15 @@
       </c>
       <c r="K45" s="2">
         <f t="shared" si="26"/>
-        <v>17323.75</v>
+        <v>17256.083333333332</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="26"/>
-        <v>28300.5</v>
+        <v>26720</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="26"/>
-        <v>40499.666666666672</v>
+        <v>39522.416666666672</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="26"/>
@@ -5227,15 +5257,15 @@
       </c>
       <c r="K46" s="2">
         <f t="shared" si="29"/>
-        <v>19968</v>
+        <v>17617.5</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="29"/>
-        <v>25596</v>
+        <v>25594</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="29"/>
-        <v>40274</v>
+        <v>35183.5</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="29"/>
@@ -5262,300 +5292,332 @@
         <v>236946</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="26" customHeight="1">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:19">
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="26" customHeight="1">
+      <c r="A50" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C50" s="12">
         <f>C43/C$1*1000</f>
         <v>260166.66666666663</v>
       </c>
-      <c r="D48" s="12">
-        <f t="shared" ref="D48:S48" si="30">D43/D$1*1000</f>
+      <c r="D50" s="12">
+        <f t="shared" ref="D50:S50" si="30">D43/D$1*1000</f>
         <v>211416.66666666669</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E50" s="12">
         <f t="shared" si="30"/>
         <v>21377.5</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F50" s="12">
         <f t="shared" si="30"/>
         <v>2343.5</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G50" s="12">
         <f t="shared" si="30"/>
         <v>267.05</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H50" s="12">
         <f t="shared" si="30"/>
         <v>28.743333333333329</v>
       </c>
-      <c r="I48" s="12">
-        <f t="shared" ref="I48" si="31">I43/I$1*1000</f>
+      <c r="I50" s="12">
+        <f t="shared" ref="I50" si="31">I43/I$1*1000</f>
         <v>17.617000000000001</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J50" s="12">
         <f t="shared" si="30"/>
         <v>18.59975</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K50" s="12">
         <f t="shared" si="30"/>
-        <v>18.793875</v>
-      </c>
-      <c r="L48" s="12">
+        <v>18.570083333333329</v>
+      </c>
+      <c r="L50" s="12">
         <f t="shared" si="30"/>
-        <v>18.34525</v>
-      </c>
-      <c r="M48" s="12">
+        <v>18.243333333333332</v>
+      </c>
+      <c r="M50" s="12">
         <f t="shared" si="30"/>
-        <v>18.581125</v>
-      </c>
-      <c r="N48" s="12">
+        <v>18.432375</v>
+      </c>
+      <c r="N50" s="12">
         <f t="shared" si="30"/>
         <v>19.744583333333331</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O50" s="12">
         <f t="shared" si="30"/>
         <v>19.459208333333333</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P50" s="12">
         <f t="shared" si="30"/>
         <v>16.013500000000001</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q50" s="12">
         <f t="shared" si="30"/>
         <v>16.4575</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R50" s="12">
         <f t="shared" si="30"/>
         <v>16.042133333333332</v>
       </c>
-      <c r="S48" s="12">
+      <c r="S50" s="12">
         <f t="shared" si="30"/>
         <v>16.645025</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="14"/>
-      <c r="B49" s="6" t="s">
+    <row r="51" spans="1:19">
+      <c r="A51" s="14"/>
+      <c r="B51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="12">
-        <f t="shared" ref="C49:S51" si="32">C44/C$1*1000</f>
+      <c r="C51" s="12">
+        <f t="shared" ref="C51:S53" si="32">C44/C$1*1000</f>
         <v>2157666.666666667</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="32"/>
         <v>117066.66666666664</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E51" s="12">
         <f t="shared" si="32"/>
         <v>13017.5</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F51" s="12">
         <f t="shared" si="32"/>
         <v>1286.6666666666665</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G51" s="12">
         <f t="shared" si="32"/>
         <v>118.325</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H51" s="12">
         <f t="shared" si="32"/>
         <v>19.8</v>
       </c>
-      <c r="I49" s="12">
-        <f t="shared" ref="I49" si="33">I44/I$1*1000</f>
+      <c r="I51" s="12">
+        <f t="shared" ref="I51" si="33">I44/I$1*1000</f>
         <v>12.382000000000001</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J51" s="12">
         <f t="shared" si="32"/>
         <v>12.95125</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K51" s="12">
         <f t="shared" si="32"/>
-        <v>12.000999999999999</v>
-      </c>
-      <c r="L49" s="12">
+        <v>11.890625</v>
+      </c>
+      <c r="L51" s="12">
         <f t="shared" si="32"/>
-        <v>11.200583333333332</v>
-      </c>
-      <c r="M49" s="12">
+        <v>11.560666666666666</v>
+      </c>
+      <c r="M51" s="12">
         <f t="shared" si="32"/>
-        <v>12.238958333333333</v>
-      </c>
-      <c r="N49" s="12">
+        <v>11.801583333333332</v>
+      </c>
+      <c r="N51" s="12">
         <f t="shared" si="32"/>
         <v>12.866766666666667</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O51" s="12">
         <f t="shared" si="32"/>
         <v>12.543208333333332</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P51" s="12">
         <f t="shared" si="32"/>
         <v>10.587428571428573</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q51" s="12">
         <f t="shared" si="32"/>
         <v>10.617949999999999</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R51" s="12">
         <f t="shared" si="32"/>
         <v>10.742366666666666</v>
       </c>
-      <c r="S49" s="12">
+      <c r="S51" s="12">
         <f t="shared" si="32"/>
         <v>10.844575000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="14"/>
-      <c r="B50" s="6" t="s">
+    <row r="52" spans="1:19">
+      <c r="A52" s="14"/>
+      <c r="B52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C52" s="12">
         <f t="shared" si="32"/>
         <v>1352166.6666666665</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="32"/>
         <v>100433.33333333334</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E52" s="12">
         <f t="shared" si="32"/>
         <v>10992.5</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F52" s="12">
         <f t="shared" si="32"/>
         <v>1136.5</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G52" s="12">
         <f t="shared" si="32"/>
         <v>109.77499999999999</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H52" s="12">
         <f t="shared" si="32"/>
         <v>14.411666666666665</v>
       </c>
-      <c r="I50" s="12">
-        <f t="shared" ref="I50" si="34">I45/I$1*1000</f>
+      <c r="I52" s="12">
+        <f t="shared" ref="I52" si="34">I45/I$1*1000</f>
         <v>7.6980000000000004</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J52" s="12">
         <f t="shared" si="32"/>
         <v>9.6895000000000007</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K52" s="12">
         <f t="shared" si="32"/>
-        <v>8.6618750000000002</v>
-      </c>
-      <c r="L50" s="12">
+        <v>8.6280416666666664</v>
+      </c>
+      <c r="L52" s="12">
         <f t="shared" si="32"/>
-        <v>9.4334999999999987</v>
-      </c>
-      <c r="M50" s="12">
+        <v>8.9066666666666663</v>
+      </c>
+      <c r="M52" s="12">
         <f t="shared" si="32"/>
-        <v>10.124916666666667</v>
-      </c>
-      <c r="N50" s="12">
+        <v>9.880604166666668</v>
+      </c>
+      <c r="N52" s="12">
         <f t="shared" si="32"/>
         <v>8.8194166666666671</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O52" s="12">
         <f t="shared" si="32"/>
         <v>9.0915416666666662</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P52" s="12">
         <f t="shared" si="32"/>
         <v>7.5805000000000007</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q52" s="12">
         <f t="shared" si="32"/>
         <v>7.8594500000000007</v>
       </c>
-      <c r="R50" s="12">
+      <c r="R52" s="12">
         <f t="shared" si="32"/>
         <v>9.8487999999999989</v>
       </c>
-      <c r="S50" s="12">
+      <c r="S52" s="12">
         <f t="shared" si="32"/>
         <v>9.0209499999999991</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="15"/>
-      <c r="B51" s="8" t="s">
+    <row r="53" spans="1:19">
+      <c r="A53" s="15"/>
+      <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C53" s="12">
         <f t="shared" si="32"/>
         <v>795000</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D53" s="12">
         <f t="shared" si="32"/>
         <v>74800</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E53" s="12">
         <f t="shared" si="32"/>
         <v>9760</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F53" s="12">
         <f t="shared" si="32"/>
         <v>1442</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G53" s="12">
         <f t="shared" si="32"/>
         <v>120.5</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H53" s="12">
         <f t="shared" si="32"/>
         <v>14.125</v>
       </c>
-      <c r="I51" s="12">
-        <f t="shared" ref="I51" si="35">I46/I$1*1000</f>
+      <c r="I53" s="12">
+        <f t="shared" ref="I53" si="35">I46/I$1*1000</f>
         <v>6.4510000000000005</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J53" s="12">
         <f t="shared" si="32"/>
         <v>10.43</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K53" s="12">
         <f t="shared" si="32"/>
-        <v>9.984</v>
-      </c>
-      <c r="L51" s="12">
+        <v>8.8087499999999999</v>
+      </c>
+      <c r="L53" s="12">
         <f t="shared" si="32"/>
-        <v>8.532</v>
-      </c>
-      <c r="M51" s="12">
+        <v>8.5313333333333343</v>
+      </c>
+      <c r="M53" s="12">
         <f t="shared" si="32"/>
-        <v>10.068499999999998</v>
-      </c>
-      <c r="N51" s="12">
+        <v>8.7958750000000006</v>
+      </c>
+      <c r="N53" s="12">
         <f t="shared" si="32"/>
         <v>8.0960000000000001</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O53" s="12">
         <f t="shared" si="32"/>
         <v>7.2845000000000004</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P53" s="12">
         <f t="shared" si="32"/>
         <v>7.5055714285714279</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="Q53" s="12">
         <f t="shared" si="32"/>
         <v>7.1957000000000004</v>
       </c>
-      <c r="R51" s="12">
+      <c r="R53" s="12">
         <f t="shared" si="32"/>
         <v>9.1798666666666655</v>
       </c>
-      <c r="S51" s="12">
+      <c r="S53" s="12">
         <f t="shared" si="32"/>
         <v>11.847300000000001</v>
       </c>
@@ -5563,7 +5625,7 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A21"/>
-    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A50:A53"/>
     <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A41"/>
   </mergeCells>
